--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7425" windowHeight="1500"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="StoreGashaponMachineInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,9 @@
     <t>icon</t>
   </si>
   <si>
+    <t>unlock_ids</t>
+  </si>
+  <si>
     <t>name_cn</t>
   </si>
   <si>
@@ -65,7 +68,7 @@
     <t>序号</t>
   </si>
   <si>
-    <t>包含的生物ID</t>
+    <t>包含的生物ID（,分割 -表示范围）</t>
   </si>
   <si>
     <t>购买数量</t>
@@ -77,6 +80,9 @@
     <t>内容</t>
   </si>
   <si>
+    <t>解锁ID</t>
+  </si>
+  <si>
     <t>名字-中文</t>
   </si>
   <si>
@@ -86,7 +92,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>1,2,3</t>
+    <t>1001,2001,3001,4001,</t>
   </si>
   <si>
     <t>剑与魔法</t>
@@ -98,13 +104,13 @@
     <t>剑与魔法x5</t>
   </si>
   <si>
-    <t>Sword and Sorceryx5</t>
+    <t>Sword and Sorcery x5</t>
   </si>
   <si>
     <t>剑与魔法x10</t>
   </si>
   <si>
-    <t>Sword and Sorceryx10</t>
+    <t>Sword and Sorcery x10</t>
   </si>
   <si>
     <t>不死族</t>
@@ -116,13 +122,13 @@
     <t>不死族x5</t>
   </si>
   <si>
-    <t>Undeadx5</t>
+    <t>Undead x5</t>
   </si>
   <si>
     <t>不死族x10</t>
   </si>
   <si>
-    <t>Undeadx10</t>
+    <t>Undead x10</t>
   </si>
   <si>
     <t>人族</t>
@@ -134,13 +140,13 @@
     <t>人族x5</t>
   </si>
   <si>
-    <t>Humanx5</t>
+    <t>Human x5</t>
   </si>
   <si>
     <t>人族x10</t>
   </si>
   <si>
-    <t>Humanx10</t>
+    <t>Human x10</t>
   </si>
   <si>
     <t>史莱姆</t>
@@ -152,16 +158,34 @@
     <t>史莱姆x5</t>
   </si>
   <si>
-    <t>Slimex5</t>
+    <t>Slime x5</t>
   </si>
   <si>
     <t>史莱姆x10</t>
   </si>
   <si>
-    <t>Slimex10</t>
-  </si>
-  <si>
-    <t>900000-999999</t>
+    <t>Slime x10</t>
+  </si>
+  <si>
+    <t>魅魔</t>
+  </si>
+  <si>
+    <t>Succubus</t>
+  </si>
+  <si>
+    <t>魅魔x5</t>
+  </si>
+  <si>
+    <t>Succubus x5</t>
+  </si>
+  <si>
+    <t>魅魔x10</t>
+  </si>
+  <si>
+    <t>Succubus x10</t>
+  </si>
+  <si>
+    <t>999947-999999</t>
   </si>
   <si>
     <t>其他</t>
@@ -783,8 +807,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1135,24 +1162,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="47.5" customWidth="1"/>
-    <col min="8" max="8" width="42.875" customWidth="1"/>
+    <col min="5" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="47.5" customWidth="1"/>
+    <col min="9" max="9" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1177,65 +1204,74 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1243,22 +1279,22 @@
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1266,19 +1302,22 @@
       <c r="D5">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
+      <c r="F5">
+        <v>100002</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1286,19 +1325,22 @@
       <c r="D6">
         <v>100</v>
       </c>
-      <c r="F6" t="s">
-        <v>24</v>
+      <c r="F6">
+        <v>100003</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>101</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1306,22 +1348,25 @@
       <c r="D7">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>26</v>
+      <c r="F7">
+        <v>100101</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>102</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1329,19 +1374,22 @@
       <c r="D8">
         <v>100</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
+      <c r="F8">
+        <v>100102</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>103</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -1349,19 +1397,22 @@
       <c r="D9">
         <v>200</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
+      <c r="F9">
+        <v>100103</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>201</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1369,22 +1420,25 @@
       <c r="D10">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
-        <v>32</v>
+      <c r="F10">
+        <v>100201</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>202</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1392,19 +1446,22 @@
       <c r="D11">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
-        <v>34</v>
+      <c r="F11">
+        <v>100202</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>203</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>2001</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1412,19 +1469,22 @@
       <c r="D12">
         <v>200</v>
       </c>
-      <c r="F12" t="s">
-        <v>36</v>
+      <c r="F12">
+        <v>100203</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>301</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1432,22 +1492,25 @@
       <c r="D13">
         <v>20</v>
       </c>
-      <c r="F13" t="s">
-        <v>38</v>
+      <c r="F13">
+        <v>100301</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>302</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1455,19 +1518,22 @@
       <c r="D14">
         <v>100</v>
       </c>
-      <c r="F14" t="s">
-        <v>40</v>
+      <c r="F14">
+        <v>100302</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>303</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1475,47 +1541,122 @@
       <c r="D15">
         <v>200</v>
       </c>
-      <c r="F15" t="s">
-        <v>42</v>
+      <c r="F15">
+        <v>100303</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
-        <v>999999</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
+        <v>401</v>
+      </c>
+      <c r="B16">
+        <v>4001</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>100401</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>402</v>
+      </c>
+      <c r="B17">
+        <v>4001</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>100402</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>403</v>
+      </c>
+      <c r="B18">
+        <v>4001</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="F18">
+        <v>100403</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>999999</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="34" ht="12" customHeight="1"/>
     <row r="35" ht="12" customHeight="1"/>
     <row r="36" ht="12" customHeight="1"/>
     <row r="37" ht="12" customHeight="1"/>
     <row r="38" ht="12" customHeight="1"/>
     <row r="39" ht="12" customHeight="1"/>
+    <row r="40" ht="12" customHeight="1"/>
+    <row r="41" ht="12" customHeight="1"/>
+    <row r="42" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:H88">
+  <sortState ref="A4:I88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
@@ -113,6 +113,24 @@
     <t>Sword and Sorcery x10</t>
   </si>
   <si>
+    <t>人族</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>人族x5</t>
+  </si>
+  <si>
+    <t>Human x5</t>
+  </si>
+  <si>
+    <t>人族x10</t>
+  </si>
+  <si>
+    <t>Human x10</t>
+  </si>
+  <si>
     <t>不死族</t>
   </si>
   <si>
@@ -129,24 +147,6 @@
   </si>
   <si>
     <t>Undead x10</t>
-  </si>
-  <si>
-    <t>人族</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>人族x5</t>
-  </si>
-  <si>
-    <t>Human x5</t>
-  </si>
-  <si>
-    <t>人族x10</t>
-  </si>
-  <si>
-    <t>Human x10</t>
   </si>
   <si>
     <t>史莱姆</t>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1335,7 +1335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" customFormat="1" spans="1:9">
       <c r="A7">
         <v>101</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" customFormat="1" spans="1:8">
       <c r="A8">
         <v>102</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" customFormat="1" spans="1:8">
       <c r="A9">
         <v>103</v>
       </c>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
@@ -38,7 +38,7 @@
     <t>buy_num</t>
   </si>
   <si>
-    <t>pay_coin</t>
+    <t>pay_crystal</t>
   </si>
   <si>
     <t>icon</t>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -92,7 +92,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>1001,2001,3001,4001,</t>
+    <t>1001,2001,2002,2003,2004,3001,4001,</t>
   </si>
   <si>
     <t>剑与魔法</t>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Human x10</t>
+  </si>
+  <si>
+    <t>2001,2002,2003,2004,</t>
   </si>
   <si>
     <t>不死族</t>
@@ -1165,7 +1168,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1411,8 +1414,8 @@
       <c r="A10">
         <v>201</v>
       </c>
-      <c r="B10">
-        <v>2001</v>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1424,21 +1427,21 @@
         <v>100201</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
         <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
         <v>202</v>
       </c>
-      <c r="B11">
-        <v>2001</v>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1450,18 +1453,18 @@
         <v>100202</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
         <v>203</v>
       </c>
-      <c r="B12">
-        <v>2001</v>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1473,10 +1476,10 @@
         <v>100203</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1496,13 +1499,13 @@
         <v>100301</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
         <v>41</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1522,10 +1525,10 @@
         <v>100302</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1545,10 +1548,10 @@
         <v>100303</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1568,13 +1571,13 @@
         <v>100401</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
         <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1594,10 +1597,10 @@
         <v>100402</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1617,10 +1620,10 @@
         <v>100403</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1628,7 +1631,7 @@
         <v>999999</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -1637,13 +1640,13 @@
         <v>10000</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
         <v>54</v>
-      </c>
-      <c r="I19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
@@ -44,7 +44,7 @@
     <t>icon</t>
   </si>
   <si>
-    <t>unlock_ids</t>
+    <t>unlock_id</t>
   </si>
   <si>
     <t>name_cn</t>
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1176,7 +1176,8 @@
     <col min="2" max="2" width="52.625" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="6" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="47.5" customWidth="1"/>
     <col min="9" max="9" width="42.875" customWidth="1"/>
@@ -1228,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1306,7 +1307,7 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>100002</v>
+        <v>10000002</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -1329,7 +1330,7 @@
         <v>100</v>
       </c>
       <c r="F6">
-        <v>100003</v>
+        <v>10000003</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1352,7 +1353,7 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>100101</v>
+        <v>10000101</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -1378,7 +1379,7 @@
         <v>100</v>
       </c>
       <c r="F8">
-        <v>100102</v>
+        <v>10000102</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
@@ -1401,7 +1402,7 @@
         <v>200</v>
       </c>
       <c r="F9">
-        <v>100103</v>
+        <v>10000103</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
@@ -1424,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>100201</v>
+        <v>10000201</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
@@ -1450,7 +1451,7 @@
         <v>100</v>
       </c>
       <c r="F11">
-        <v>100202</v>
+        <v>10000202</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -1473,7 +1474,7 @@
         <v>200</v>
       </c>
       <c r="F12">
-        <v>100203</v>
+        <v>10000203</v>
       </c>
       <c r="G12" t="s">
         <v>39</v>
@@ -1496,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>100301</v>
+        <v>10000301</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -1522,7 +1523,7 @@
         <v>100</v>
       </c>
       <c r="F14">
-        <v>100302</v>
+        <v>10000302</v>
       </c>
       <c r="G14" t="s">
         <v>43</v>
@@ -1545,7 +1546,7 @@
         <v>200</v>
       </c>
       <c r="F15">
-        <v>100303</v>
+        <v>10000303</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1568,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>100401</v>
+        <v>10000401</v>
       </c>
       <c r="G16" t="s">
         <v>47</v>
@@ -1594,7 +1595,7 @@
         <v>100</v>
       </c>
       <c r="F17">
-        <v>100402</v>
+        <v>10000402</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
@@ -1617,7 +1618,7 @@
         <v>200</v>
       </c>
       <c r="F18">
-        <v>100403</v>
+        <v>10000403</v>
       </c>
       <c r="G18" t="s">
         <v>51</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="StoreGashaponMachineInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -47,9 +47,6 @@
     <t>unlock_id</t>
   </si>
   <si>
-    <t>name_cn</t>
-  </si>
-  <si>
     <t>name_en</t>
   </si>
   <si>
@@ -83,10 +80,7 @@
     <t>解锁ID</t>
   </si>
   <si>
-    <t>名字-中文</t>
-  </si>
-  <si>
-    <t>名字-英文</t>
+    <t>名字</t>
   </si>
   <si>
     <t>备注</t>
@@ -98,103 +92,55 @@
     <t>剑与魔法</t>
   </si>
   <si>
-    <t>Sword and Sorcery</t>
-  </si>
-  <si>
     <t>剑与魔法x5</t>
   </si>
   <si>
-    <t>Sword and Sorcery x5</t>
-  </si>
-  <si>
     <t>剑与魔法x10</t>
   </si>
   <si>
-    <t>Sword and Sorcery x10</t>
-  </si>
-  <si>
     <t>人族</t>
   </si>
   <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>人族x5</t>
   </si>
   <si>
-    <t>Human x5</t>
-  </si>
-  <si>
     <t>人族x10</t>
   </si>
   <si>
-    <t>Human x10</t>
-  </si>
-  <si>
     <t>2001,2002,2003,2004,</t>
   </si>
   <si>
     <t>不死族</t>
   </si>
   <si>
-    <t>Undead</t>
-  </si>
-  <si>
     <t>不死族x5</t>
   </si>
   <si>
-    <t>Undead x5</t>
-  </si>
-  <si>
     <t>不死族x10</t>
   </si>
   <si>
-    <t>Undead x10</t>
-  </si>
-  <si>
     <t>史莱姆</t>
   </si>
   <si>
-    <t>Slime</t>
-  </si>
-  <si>
     <t>史莱姆x5</t>
   </si>
   <si>
-    <t>Slime x5</t>
-  </si>
-  <si>
     <t>史莱姆x10</t>
   </si>
   <si>
-    <t>Slime x10</t>
-  </si>
-  <si>
     <t>魅魔</t>
   </si>
   <si>
-    <t>Succubus</t>
-  </si>
-  <si>
     <t>魅魔x5</t>
   </si>
   <si>
-    <t>Succubus x5</t>
-  </si>
-  <si>
     <t>魅魔x10</t>
   </si>
   <si>
-    <t>Succubus x10</t>
-  </si>
-  <si>
     <t>999947-999999</t>
   </si>
   <si>
     <t>其他</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1165,25 +1111,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="52.625" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="47.5" customWidth="1"/>
-    <col min="9" max="9" width="42.875" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,74 +1153,65 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1283,14 +1219,11 @@
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
+      <c r="G4">
+        <v>30000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1298,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1309,11 +1242,11 @@
       <c r="F5">
         <v>10000002</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
+      <c r="G5">
+        <v>30000000002</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1321,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1332,14 +1265,14 @@
       <c r="F6">
         <v>10000003</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
+      <c r="G6">
+        <v>30000000003</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:8">
       <c r="A7">
         <v>101</v>
       </c>
@@ -1355,14 +1288,11 @@
       <c r="F7">
         <v>10000101</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
+      <c r="G7">
+        <v>30000000101</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:8">
@@ -1381,11 +1311,11 @@
       <c r="F8">
         <v>10000102</v>
       </c>
-      <c r="G8" t="s">
-        <v>30</v>
+      <c r="G8">
+        <v>30000000102</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:8">
@@ -1404,19 +1334,19 @@
       <c r="F9">
         <v>10000103</v>
       </c>
-      <c r="G9" t="s">
-        <v>32</v>
+      <c r="G9">
+        <v>30000000103</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1427,14 +1357,11 @@
       <c r="F10">
         <v>10000201</v>
       </c>
-      <c r="G10" t="s">
-        <v>35</v>
+      <c r="G10">
+        <v>30000000201</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1442,7 +1369,7 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1453,11 +1380,11 @@
       <c r="F11">
         <v>10000202</v>
       </c>
-      <c r="G11" t="s">
-        <v>37</v>
+      <c r="G11">
+        <v>30000000202</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1465,7 +1392,7 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1476,14 +1403,14 @@
       <c r="F12">
         <v>10000203</v>
       </c>
-      <c r="G12" t="s">
-        <v>39</v>
+      <c r="G12">
+        <v>30000000203</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>301</v>
       </c>
@@ -1499,14 +1426,11 @@
       <c r="F13">
         <v>10000301</v>
       </c>
-      <c r="G13" t="s">
-        <v>41</v>
+      <c r="G13">
+        <v>30000000301</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1525,11 +1449,11 @@
       <c r="F14">
         <v>10000302</v>
       </c>
-      <c r="G14" t="s">
-        <v>43</v>
+      <c r="G14">
+        <v>30000000302</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1548,14 +1472,14 @@
       <c r="F15">
         <v>10000303</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
+      <c r="G15">
+        <v>30000000303</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>401</v>
       </c>
@@ -1571,14 +1495,11 @@
       <c r="F16">
         <v>10000401</v>
       </c>
-      <c r="G16" t="s">
-        <v>47</v>
+      <c r="G16">
+        <v>30000000401</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1597,11 +1518,11 @@
       <c r="F17">
         <v>10000402</v>
       </c>
-      <c r="G17" t="s">
-        <v>49</v>
+      <c r="G17">
+        <v>30000000402</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1620,19 +1541,19 @@
       <c r="F18">
         <v>10000403</v>
       </c>
-      <c r="G18" t="s">
-        <v>51</v>
+      <c r="G18">
+        <v>30000000403</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>999999</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -1640,14 +1561,11 @@
       <c r="D19">
         <v>10000</v>
       </c>
-      <c r="G19" t="s">
-        <v>54</v>
+      <c r="G19">
+        <v>30000999999</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="StoreGashaponMachineInfo" sheetId="1" r:id="rId1"/>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1220,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>30000000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -1243,7 +1243,7 @@
         <v>10000002</v>
       </c>
       <c r="G5">
-        <v>30000000002</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -1266,7 +1266,7 @@
         <v>10000003</v>
       </c>
       <c r="G6">
-        <v>30000000003</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -1289,7 +1289,7 @@
         <v>10000101</v>
       </c>
       <c r="G7">
-        <v>30000000101</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -1312,7 +1312,7 @@
         <v>10000102</v>
       </c>
       <c r="G8">
-        <v>30000000102</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -1335,7 +1335,7 @@
         <v>10000103</v>
       </c>
       <c r="G9">
-        <v>30000000103</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -1358,7 +1358,7 @@
         <v>10000201</v>
       </c>
       <c r="G10">
-        <v>30000000201</v>
+        <v>201</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -1381,7 +1381,7 @@
         <v>10000202</v>
       </c>
       <c r="G11">
-        <v>30000000202</v>
+        <v>202</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -1404,7 +1404,7 @@
         <v>10000203</v>
       </c>
       <c r="G12">
-        <v>30000000203</v>
+        <v>203</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -1427,7 +1427,7 @@
         <v>10000301</v>
       </c>
       <c r="G13">
-        <v>30000000301</v>
+        <v>301</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
@@ -1450,7 +1450,7 @@
         <v>10000302</v>
       </c>
       <c r="G14">
-        <v>30000000302</v>
+        <v>302</v>
       </c>
       <c r="H14" t="s">
         <v>31</v>
@@ -1473,7 +1473,7 @@
         <v>10000303</v>
       </c>
       <c r="G15">
-        <v>30000000303</v>
+        <v>303</v>
       </c>
       <c r="H15" t="s">
         <v>32</v>
@@ -1496,7 +1496,7 @@
         <v>10000401</v>
       </c>
       <c r="G16">
-        <v>30000000401</v>
+        <v>401</v>
       </c>
       <c r="H16" t="s">
         <v>33</v>
@@ -1519,7 +1519,7 @@
         <v>10000402</v>
       </c>
       <c r="G17">
-        <v>30000000402</v>
+        <v>402</v>
       </c>
       <c r="H17" t="s">
         <v>34</v>
@@ -1542,7 +1542,7 @@
         <v>10000403</v>
       </c>
       <c r="G18">
-        <v>30000000403</v>
+        <v>403</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
@@ -1562,7 +1562,7 @@
         <v>10000</v>
       </c>
       <c r="G19">
-        <v>30000999999</v>
+        <v>999999</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -44,10 +44,10 @@
     <t>icon</t>
   </si>
   <si>
-    <t>unlock_id</t>
-  </si>
-  <si>
-    <t>name_en</t>
+    <t>pre_unlock_ids</t>
+  </si>
+  <si>
+    <t>name[language]</t>
   </si>
   <si>
     <t>remark</t>
@@ -86,37 +86,31 @@
     <t>备注</t>
   </si>
   <si>
-    <t>1001,2001,2002,2003,2004,3001,4001,</t>
-  </si>
-  <si>
-    <t>剑与魔法</t>
-  </si>
-  <si>
-    <t>剑与魔法x5</t>
-  </si>
-  <si>
-    <t>剑与魔法x10</t>
-  </si>
-  <si>
-    <t>人族</t>
-  </si>
-  <si>
-    <t>人族x5</t>
-  </si>
-  <si>
-    <t>人族x10</t>
-  </si>
-  <si>
-    <t>2001,2002,2003,2004,</t>
-  </si>
-  <si>
-    <t>不死族</t>
-  </si>
-  <si>
-    <t>不死族x5</t>
-  </si>
-  <si>
-    <t>不死族x10</t>
+    <t>300100000,300100001|300100002|300100003|3002100004|</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>人类x5</t>
+  </si>
+  <si>
+    <t>人类x10</t>
+  </si>
+  <si>
+    <t>300200000,300200001|300200002|300200003|300200004|</t>
+  </si>
+  <si>
+    <t>骷髅</t>
+  </si>
+  <si>
+    <t>骷髅x5</t>
+  </si>
+  <si>
+    <t>骷髅x10</t>
+  </si>
+  <si>
+    <t>300300000,300300001|300300002|300300003|300300004|</t>
   </si>
   <si>
     <t>史莱姆</t>
@@ -128,6 +122,9 @@
     <t>史莱姆x10</t>
   </si>
   <si>
+    <t>300400000,300400001|300400002|300400003|300400004|300400005|</t>
+  </si>
+  <si>
     <t>魅魔</t>
   </si>
   <si>
@@ -137,10 +134,40 @@
     <t>魅魔x10</t>
   </si>
   <si>
-    <t>999947-999999</t>
-  </si>
-  <si>
-    <t>其他</t>
+    <t>300500000,300500001|300500002|300500003|300500004|</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>牛头人x5</t>
+  </si>
+  <si>
+    <t>牛头人x10</t>
+  </si>
+  <si>
+    <t>300600000,300600001|300600002|300600003|300600004|300600005|</t>
+  </si>
+  <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>哥布林x5</t>
+  </si>
+  <si>
+    <t>哥布林x10</t>
+  </si>
+  <si>
+    <t>300700000,300700001|300700002|300700003|300700004|</t>
+  </si>
+  <si>
+    <t>兽人</t>
+  </si>
+  <si>
+    <t>兽人x5</t>
+  </si>
+  <si>
+    <t>兽人x10</t>
   </si>
 </sst>
 </file>
@@ -760,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1123,8 +1150,8 @@
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="67.125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1171,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1206,78 +1233,72 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" customFormat="1" spans="1:8">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>10001</v>
+      </c>
+      <c r="B4"/>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" customFormat="1" spans="1:8">
       <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>10002</v>
+      </c>
+      <c r="B5"/>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>10000002</v>
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>300100101</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" customFormat="1" spans="1:8">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>10003</v>
+      </c>
+      <c r="B6"/>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>10000003</v>
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>300100102</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>10003</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>101</v>
-      </c>
-      <c r="B7">
-        <v>1001</v>
+        <v>20001</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1285,22 +1306,19 @@
       <c r="D7">
         <v>20</v>
       </c>
-      <c r="F7">
-        <v>10000101</v>
+      <c r="F7" t="s">
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>101</v>
+        <v>20001</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>102</v>
-      </c>
-      <c r="B8">
-        <v>1001</v>
+        <v>20002</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1309,21 +1327,18 @@
         <v>100</v>
       </c>
       <c r="F8">
-        <v>10000102</v>
+        <v>300200101</v>
       </c>
       <c r="G8">
-        <v>102</v>
+        <v>20002</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>103</v>
-      </c>
-      <c r="B9">
-        <v>1001</v>
+        <v>20003</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -1332,21 +1347,18 @@
         <v>200</v>
       </c>
       <c r="F9">
-        <v>10000103</v>
+        <v>300200102</v>
       </c>
       <c r="G9">
-        <v>103</v>
+        <v>20003</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>201</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
+        <v>30001</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1354,22 +1366,19 @@
       <c r="D10">
         <v>20</v>
       </c>
-      <c r="F10">
-        <v>10000201</v>
+      <c r="F10" t="s">
+        <v>27</v>
       </c>
       <c r="G10">
-        <v>201</v>
+        <v>30001</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>202</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
+        <v>30002</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1378,21 +1387,18 @@
         <v>100</v>
       </c>
       <c r="F11">
-        <v>10000202</v>
+        <v>300300101</v>
       </c>
       <c r="G11">
-        <v>202</v>
+        <v>30002</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>203</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
+        <v>30003</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1401,21 +1407,18 @@
         <v>200</v>
       </c>
       <c r="F12">
-        <v>10000203</v>
+        <v>300300102</v>
       </c>
       <c r="G12">
-        <v>203</v>
+        <v>30003</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>301</v>
-      </c>
-      <c r="B13">
-        <v>3001</v>
+        <v>40001</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1423,22 +1426,19 @@
       <c r="D13">
         <v>20</v>
       </c>
-      <c r="F13">
-        <v>10000301</v>
+      <c r="F13" t="s">
+        <v>31</v>
       </c>
       <c r="G13">
-        <v>301</v>
+        <v>40001</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>302</v>
-      </c>
-      <c r="B14">
-        <v>3001</v>
+        <v>40002</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1447,21 +1447,18 @@
         <v>100</v>
       </c>
       <c r="F14">
-        <v>10000302</v>
+        <v>300400101</v>
       </c>
       <c r="G14">
-        <v>302</v>
+        <v>40002</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>303</v>
-      </c>
-      <c r="B15">
-        <v>3001</v>
+        <v>40003</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1470,21 +1467,18 @@
         <v>200</v>
       </c>
       <c r="F15">
-        <v>10000303</v>
+        <v>300400102</v>
       </c>
       <c r="G15">
-        <v>303</v>
+        <v>40003</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>401</v>
-      </c>
-      <c r="B16">
-        <v>4001</v>
+        <v>50001</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1492,22 +1486,19 @@
       <c r="D16">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>10000401</v>
+      <c r="F16" t="s">
+        <v>35</v>
       </c>
       <c r="G16">
-        <v>401</v>
+        <v>50001</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>402</v>
-      </c>
-      <c r="B17">
-        <v>4001</v>
+        <v>50002</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1516,21 +1507,18 @@
         <v>100</v>
       </c>
       <c r="F17">
-        <v>10000402</v>
+        <v>300500101</v>
       </c>
       <c r="G17">
-        <v>402</v>
+        <v>50002</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>403</v>
-      </c>
-      <c r="B18">
-        <v>4001</v>
+        <v>50003</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1539,48 +1527,145 @@
         <v>200</v>
       </c>
       <c r="F18">
-        <v>10000403</v>
+        <v>300500102</v>
       </c>
       <c r="G18">
-        <v>403</v>
+        <v>50003</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>999999</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>60001</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19">
+        <v>60001</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>60002</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>300600101</v>
+      </c>
+      <c r="G20">
+        <v>60002</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>60003</v>
+      </c>
+      <c r="C21">
         <v>10</v>
       </c>
-      <c r="D19">
-        <v>10000</v>
-      </c>
-      <c r="G19">
-        <v>999999</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-    </row>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="F21">
+        <v>300600102</v>
+      </c>
+      <c r="G21">
+        <v>60003</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>70001</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22">
+        <v>70001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>70002</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>300700101</v>
+      </c>
+      <c r="G23">
+        <v>70002</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>70003</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="F24">
+        <v>300700102</v>
+      </c>
+      <c r="G24">
+        <v>70003</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" ht="12" customHeight="1"/>
+    <row r="32" ht="12" customHeight="1"/>
+    <row r="33" ht="12" customHeight="1"/>
     <row r="34" ht="12" customHeight="1"/>
     <row r="35" ht="12" customHeight="1"/>
     <row r="36" ht="12" customHeight="1"/>
     <row r="37" ht="12" customHeight="1"/>
     <row r="38" ht="12" customHeight="1"/>
     <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:I88">
-    <sortCondition ref="A4"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_store_gashaponmachine_info[商店-扭蛋机].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -41,7 +41,7 @@
     <t>pay_crystal</t>
   </si>
   <si>
-    <t>icon</t>
+    <t>icon_res</t>
   </si>
   <si>
     <t>pre_unlock_ids</t>
@@ -86,6 +86,12 @@
     <t>备注</t>
   </si>
   <si>
+    <t>1001-1004</t>
+  </si>
+  <si>
+    <t>ui_research_36</t>
+  </si>
+  <si>
     <t>300100000,300100001|300100002|300100003|3002100004|</t>
   </si>
   <si>
@@ -98,6 +104,12 @@
     <t>人类x10</t>
   </si>
   <si>
+    <t>2001-2004</t>
+  </si>
+  <si>
+    <t>ui_research_35</t>
+  </si>
+  <si>
     <t>300200000,300200001|300200002|300200003|300200004|</t>
   </si>
   <si>
@@ -110,6 +122,12 @@
     <t>骷髅x10</t>
   </si>
   <si>
+    <t>3001-3004</t>
+  </si>
+  <si>
+    <t>ui_research_37</t>
+  </si>
+  <si>
     <t>300300000,300300001|300300002|300300003|300300004|</t>
   </si>
   <si>
@@ -122,6 +140,12 @@
     <t>史莱姆x10</t>
   </si>
   <si>
+    <t>4001-4005</t>
+  </si>
+  <si>
+    <t>ui_research_41</t>
+  </si>
+  <si>
     <t>300400000,300400001|300400002|300400003|300400004|300400005|</t>
   </si>
   <si>
@@ -134,6 +158,12 @@
     <t>魅魔x10</t>
   </si>
   <si>
+    <t>5001-5004</t>
+  </si>
+  <si>
+    <t>ui_research_40</t>
+  </si>
+  <si>
     <t>300500000,300500001|300500002|300500003|300500004|</t>
   </si>
   <si>
@@ -146,6 +176,12 @@
     <t>牛头人x10</t>
   </si>
   <si>
+    <t>6001-6005</t>
+  </si>
+  <si>
+    <t>ui_research_39</t>
+  </si>
+  <si>
     <t>300600000,300600001|300600002|300600003|300600004|300600005|</t>
   </si>
   <si>
@@ -156,6 +192,12 @@
   </si>
   <si>
     <t>哥布林x10</t>
+  </si>
+  <si>
+    <t>7001-7004</t>
+  </si>
+  <si>
+    <t>ui_research_38</t>
   </si>
   <si>
     <t>300700000,300700001|300700002|300700003|300700004|</t>
@@ -1140,8 +1182,8 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1149,7 +1191,7 @@
     <col min="2" max="2" width="52.625" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="67.125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="42.875" customWidth="1"/>
@@ -1237,34 +1279,44 @@
       <c r="A4">
         <v>10001</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>10001</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5">
         <v>10002</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="1">
         <v>300100101</v>
       </c>
@@ -1272,20 +1324,25 @@
         <v>10002</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6">
         <v>10003</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="1">
         <v>300100102</v>
       </c>
@@ -1293,39 +1350,51 @@
         <v>10003</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
         <v>20001</v>
       </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>20001</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
         <v>20002</v>
       </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
       <c r="F8">
         <v>300200101</v>
       </c>
@@ -1333,19 +1402,25 @@
         <v>20002</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
         <v>20003</v>
       </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
         <v>200</v>
       </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
       <c r="F9">
         <v>300200102</v>
       </c>
@@ -1353,39 +1428,51 @@
         <v>20003</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
         <v>30001</v>
       </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>30001</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
         <v>30002</v>
       </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
       <c r="F11">
         <v>300300101</v>
       </c>
@@ -1393,19 +1480,25 @@
         <v>30002</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
         <v>30003</v>
       </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
         <v>200</v>
       </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
       <c r="F12">
         <v>300300102</v>
       </c>
@@ -1413,39 +1506,51 @@
         <v>30003</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
         <v>40001</v>
       </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>40001</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
         <v>40002</v>
       </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
       <c r="F14">
         <v>300400101</v>
       </c>
@@ -1453,19 +1558,25 @@
         <v>40002</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
         <v>40003</v>
       </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
         <v>200</v>
       </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
       <c r="F15">
         <v>300400102</v>
       </c>
@@ -1473,39 +1584,51 @@
         <v>40003</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
         <v>50001</v>
       </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G16">
         <v>50001</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
         <v>50002</v>
       </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
       <c r="F17">
         <v>300500101</v>
       </c>
@@ -1513,19 +1636,25 @@
         <v>50002</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
         <v>50003</v>
       </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18">
         <v>200</v>
       </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
       <c r="F18">
         <v>300500102</v>
       </c>
@@ -1533,39 +1662,51 @@
         <v>50003</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
         <v>60001</v>
       </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
         <v>20</v>
       </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>60001</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
         <v>60002</v>
       </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20">
         <v>100</v>
       </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
       <c r="F20">
         <v>300600101</v>
       </c>
@@ -1573,19 +1714,25 @@
         <v>60002</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
         <v>60003</v>
       </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
         <v>200</v>
       </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
       <c r="F21">
         <v>300600102</v>
       </c>
@@ -1593,39 +1740,51 @@
         <v>60003</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
         <v>70001</v>
       </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
         <v>20</v>
       </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G22">
         <v>70001</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
         <v>70002</v>
       </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
       <c r="F23">
         <v>300700101</v>
       </c>
@@ -1633,19 +1792,25 @@
         <v>70002</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
         <v>70003</v>
       </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
         <v>200</v>
       </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
       <c r="F24">
         <v>300700102</v>
       </c>
@@ -1653,7 +1818,7 @@
         <v>70003</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1"/>
